--- a/po_analysis_by_asin/B0D8WJ3PYB_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8WJ3PYB_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>40</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>20</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>40</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>40</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>40</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>60</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>40</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>80</v>

--- a/po_analysis_by_asin/B0D8WJ3PYB_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8WJ3PYB_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -517,7 +518,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -543,6 +544,229 @@
       </c>
       <c r="B4" t="n">
         <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.03718455769523</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.70079724793253</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.39952060742251</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.67797419175051</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.95081372525929</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.00511254890422</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31.57140507106969</v>
+      </c>
+      <c r="D5" t="n">
+        <v>47.99497272522432</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31.7260109241368</v>
+      </c>
+      <c r="D6" t="n">
+        <v>48.79486829196532</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41</v>
+      </c>
+      <c r="C7" t="n">
+        <v>32.54834921455443</v>
+      </c>
+      <c r="D7" t="n">
+        <v>49.5573920307493</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32.69082133356536</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50.45203868549078</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>42</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32.95523561734601</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.58569620810874</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>43</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33.81782622447736</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.72396146141195</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>34.78405188211401</v>
+      </c>
+      <c r="D11" t="n">
+        <v>52.29838503459268</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44</v>
+      </c>
+      <c r="C12" t="n">
+        <v>36.10708869442159</v>
+      </c>
+      <c r="D12" t="n">
+        <v>52.74422058119757</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>45</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35.89958139399354</v>
+      </c>
+      <c r="D13" t="n">
+        <v>53.75212096037978</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
+        <v>36.55085717698107</v>
+      </c>
+      <c r="D14" t="n">
+        <v>54.55824373889148</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D8WJ3PYB_po_data.xlsx
+++ b/po_analysis_by_asin/B0D8WJ3PYB_po_data.xlsx
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,16 +576,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -594,12 +584,6 @@
       <c r="B2" t="n">
         <v>31</v>
       </c>
-      <c r="C2" t="n">
-        <v>22.03718455769523</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.70079724793253</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -608,12 +592,6 @@
       <c r="B3" t="n">
         <v>32</v>
       </c>
-      <c r="C3" t="n">
-        <v>23.39952060742251</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.67797419175051</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -622,12 +600,6 @@
       <c r="B4" t="n">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
-        <v>27.95081372525929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46.00511254890422</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -636,12 +608,6 @@
       <c r="B5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
-        <v>31.57140507106969</v>
-      </c>
-      <c r="D5" t="n">
-        <v>47.99497272522432</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -650,12 +616,6 @@
       <c r="B6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
-        <v>31.7260109241368</v>
-      </c>
-      <c r="D6" t="n">
-        <v>48.79486829196532</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -664,12 +624,6 @@
       <c r="B7" t="n">
         <v>41</v>
       </c>
-      <c r="C7" t="n">
-        <v>32.54834921455443</v>
-      </c>
-      <c r="D7" t="n">
-        <v>49.5573920307493</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -678,12 +632,6 @@
       <c r="B8" t="n">
         <v>42</v>
       </c>
-      <c r="C8" t="n">
-        <v>32.69082133356536</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50.45203868549078</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -692,12 +640,6 @@
       <c r="B9" t="n">
         <v>42</v>
       </c>
-      <c r="C9" t="n">
-        <v>32.95523561734601</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50.58569620810874</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -706,12 +648,6 @@
       <c r="B10" t="n">
         <v>43</v>
       </c>
-      <c r="C10" t="n">
-        <v>33.81782622447736</v>
-      </c>
-      <c r="D10" t="n">
-        <v>51.72396146141195</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -720,12 +656,6 @@
       <c r="B11" t="n">
         <v>44</v>
       </c>
-      <c r="C11" t="n">
-        <v>34.78405188211401</v>
-      </c>
-      <c r="D11" t="n">
-        <v>52.29838503459268</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -734,12 +664,6 @@
       <c r="B12" t="n">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
-        <v>36.10708869442159</v>
-      </c>
-      <c r="D12" t="n">
-        <v>52.74422058119757</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -748,12 +672,6 @@
       <c r="B13" t="n">
         <v>45</v>
       </c>
-      <c r="C13" t="n">
-        <v>35.89958139399354</v>
-      </c>
-      <c r="D13" t="n">
-        <v>53.75212096037978</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -761,12 +679,6 @@
       </c>
       <c r="B14" t="n">
         <v>46</v>
-      </c>
-      <c r="C14" t="n">
-        <v>36.55085717698107</v>
-      </c>
-      <c r="D14" t="n">
-        <v>54.55824373889148</v>
       </c>
     </row>
   </sheetData>
